--- a/Takumibd.xlsx
+++ b/Takumibd.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Project Name</t>
   </si>
@@ -58,10 +58,25 @@
     <t>TS_001</t>
   </si>
   <si>
+    <t>Validate the URL in different browsers.</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
     <t>TS_002</t>
   </si>
   <si>
+    <t>Validate the "Registration" functionality</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
     <t>TS_003</t>
+  </si>
+  <si>
+    <t>Validate the "Login" functionality</t>
   </si>
   <si>
     <t>TS_004</t>
@@ -191,7 +206,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,11 +248,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -245,21 +266,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,148 +904,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,52 +1152,52 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1549,23 +1555,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.71875" customWidth="1"/>
-    <col min="2" max="2" width="24.09375" customWidth="1"/>
-    <col min="3" max="3" width="27.8671875" customWidth="1"/>
-    <col min="4" max="5" width="15.359375" customWidth="1"/>
+    <col min="1" max="1" width="14.71875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="24.09375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.8671875" style="20" customWidth="1"/>
+    <col min="4" max="5" width="15.359375" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:5">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="33" t="s">
@@ -1574,190 +1581,202 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" ht="25.75" spans="1:5">
-      <c r="A3" s="36" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:5">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="14.75" spans="1:5">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" ht="25.75" spans="1:5">
-      <c r="A8" s="42" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" ht="28.75" spans="1:5">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="A10" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="47"/>
+      <c r="A11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="46"/>
+      <c r="A12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
-      <c r="E12" s="47"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="46"/>
+      <c r="A13" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
-      <c r="E13" s="47"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="46"/>
+      <c r="A14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="49"/>
-      <c r="E14" s="47"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:5">
-      <c r="A15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="46"/>
+      <c r="A15" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="47"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:5">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="47"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="47"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="47"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:5">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="49"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1804,14 +1823,14 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="28"/>
@@ -1820,19 +1839,19 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="28"/>
@@ -1841,7 +1860,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L2" s="5">
         <f>COUNTIF(K9:K200,"Passed")</f>
@@ -1851,25 +1870,25 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L3" s="5">
         <f>COUNTIF(K9:K200,"Failed")</f>
@@ -1879,12 +1898,12 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
@@ -1893,7 +1912,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L4" s="5">
         <f>COUNTIF(K9:K200,"Not Executed")</f>
@@ -1913,7 +1932,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L5" s="5">
         <f>COUNTIF(K9:K200,"Out of Scope")</f>
@@ -1933,7 +1952,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L6" s="19">
         <f>SUM(L2:L5)</f>
@@ -1958,37 +1977,37 @@
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="32"/>
@@ -1999,27 +2018,27 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="32"/>
@@ -3290,37 +3309,37 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5">
         <f>COUNTIF(H9:H200,"Passed")</f>
@@ -3329,12 +3348,12 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
@@ -3342,7 +3361,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I3" s="5">
         <f>COUNTIF(H9:H200,"Failed")</f>
@@ -3351,18 +3370,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I4" s="5">
         <f>COUNTIF(H9:H200,"Not Executed")</f>
@@ -3378,7 +3397,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5">
         <f>COUNTIF(H9:H200,"Out of Scope")</f>
@@ -3394,7 +3413,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I6" s="19">
         <f>SUM(I2:I5)</f>
@@ -3417,28 +3436,28 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -3486,37 +3505,37 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5">
         <f>COUNTIF(H9:H200,"Passed")</f>
@@ -3525,12 +3544,12 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
@@ -3538,7 +3557,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I3" s="5">
         <f>COUNTIF(H9:H200,"Failed")</f>
@@ -3547,18 +3566,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I4" s="5">
         <f>COUNTIF(H9:H200,"Not Executed")</f>
@@ -3574,7 +3593,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5">
         <f>COUNTIF(H9:H200,"Out of Scope")</f>
@@ -3590,7 +3609,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I6" s="19">
         <f>SUM(I2:I5)</f>
@@ -3610,28 +3629,28 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Takumibd.xlsx
+++ b/Takumibd.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="9180"/>
+    <workbookView windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Login" sheetId="3" r:id="rId3"/>
-    <sheet name="Registration" sheetId="5" r:id="rId4"/>
+    <sheet name="Registration" sheetId="5" r:id="rId3"/>
+    <sheet name="Login" sheetId="3" r:id="rId4"/>
+    <sheet name="reservation" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>Project Name</t>
   </si>
@@ -172,10 +174,10 @@
     <t>Browser Compatibility Testing</t>
   </si>
   <si>
-    <t>Checking by running the URL site in different broesers.</t>
-  </si>
-  <si>
-    <t>Should be run in different browsers</t>
+    <t>Ensure that the URL has a valid syntax</t>
+  </si>
+  <si>
+    <t>The URL should be syntactically correct in all browsers, and no syntax errors should be encountered.</t>
   </si>
   <si>
     <t xml:space="preserve">Found as per expectation </t>
@@ -194,6 +196,48 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Ensure that the browser handles different protocols correctly.</t>
+  </si>
+  <si>
+    <t>Each protocol should be handled correctly, and secure URLs should display a secure connection indicator</t>
+  </si>
+  <si>
+    <t>Verify that the browser successfully loads the webpage.</t>
+  </si>
+  <si>
+    <t>The webpage should load without errors, and all resources should be displayed as intended.</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Checking spelling or grammatical mistakes</t>
+  </si>
+  <si>
+    <t>No spelling or grammatical mistakes</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://takumibd.com/register
+2. Check the spelling and grammar of the website</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://takumibd.com/login
+2. Check the spelling and grammar of the website</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://takumibd.com/reservation/form
+2. Check the spelling and grammar of the website</t>
   </si>
 </sst>
 </file>
@@ -206,7 +250,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +261,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
@@ -243,7 +292,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
@@ -414,18 +464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,6 +489,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +709,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -674,17 +735,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -904,273 +954,288 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,13 +1247,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,231 +1617,231 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.71875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="24.09375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="27.8671875" style="20" customWidth="1"/>
-    <col min="4" max="5" width="15.359375" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="14.71875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.09375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="27.8671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="15.359375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:5">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" ht="14.75" spans="1:5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" ht="28.75" spans="1:5">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:5">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:5">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:5">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1798,1446 +1863,1441 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="A1:L8"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="13.53125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.5234375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.96875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.7421875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.515625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="22.265625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19.2734375" style="20" customWidth="1"/>
-    <col min="9" max="10" width="19.5234375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="16.9296875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="2" width="13.53125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="22.5234375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.96875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.7421875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="25.515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="22.265625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="19.2734375" style="28" customWidth="1"/>
+    <col min="9" max="10" width="19.5234375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="11" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="12" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5">
-        <f>COUNTIF(K9:K200,"Passed")</f>
+      <c r="L2" s="4">
+        <f>COUNTIF(K9:K199,"Passed")</f>
         <v>1</v>
       </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="14" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="5">
-        <f>COUNTIF(K9:K200,"Failed")</f>
+      <c r="L3" s="4">
+        <f>COUNTIF(K9:K199,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="15" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="5">
-        <f>COUNTIF(K9:K200,"Not Executed")</f>
+      <c r="L4" s="4">
+        <f>COUNTIF(K9:K199,"Not Executed")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="16" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="5">
-        <f>COUNTIF(K9:K200,"Out of Scope")</f>
+      <c r="L5" s="4">
+        <f>COUNTIF(K9:K199,"Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="17" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="9">
         <f>SUM(L2:L5)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="32"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:13">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="32"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:13">
-      <c r="A9" s="25">
+      <c r="A9" s="33">
         <v>1</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="32"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:11">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:11">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:11">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:11">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:11">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:11">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:11">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:11">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:11">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:11">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:11">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:11">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:11">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:11">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:11">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:11">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:11">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:11">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:11">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:11">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:11">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:11">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:11">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:11">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:11">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:11">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:11">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:11">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:11">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:11">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:11">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:11">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:11">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:11">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:11">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
     </row>
     <row r="46" ht="42" customHeight="1" spans="1:11">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:11">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:11">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:11">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:11">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:11">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:11">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:11">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:11">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:11">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:11">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:11">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:11">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:11">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:11">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:11">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:11">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:11">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:11">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:11">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:11">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:11">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
     </row>
     <row r="68" ht="42" customHeight="1" spans="1:11">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
     </row>
     <row r="69" ht="42" customHeight="1" spans="1:11">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
     </row>
     <row r="70" ht="42" customHeight="1" spans="1:11">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
     </row>
     <row r="71" ht="42" customHeight="1" spans="1:11">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
     </row>
     <row r="72" ht="42" customHeight="1" spans="1:11">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
     </row>
     <row r="73" ht="42" customHeight="1" spans="1:11">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
     </row>
     <row r="74" ht="42" customHeight="1" spans="1:11">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
     </row>
     <row r="75" ht="42" customHeight="1" spans="1:11">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
     </row>
     <row r="76" ht="42" customHeight="1" spans="1:11">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
     </row>
     <row r="77" ht="42" customHeight="1" spans="1:11">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
     </row>
     <row r="78" ht="42" customHeight="1" spans="1:11">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
     </row>
     <row r="79" ht="42" customHeight="1" spans="1:11">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" ht="42" customHeight="1" spans="1:11">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
     </row>
     <row r="81" ht="42" customHeight="1" spans="1:11">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
     </row>
     <row r="82" ht="42" customHeight="1" spans="1:11">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
     </row>
     <row r="83" ht="42" customHeight="1" spans="1:11">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
     </row>
     <row r="84" ht="42" customHeight="1" spans="1:11">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:11">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:11">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:11">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:11">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:11">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:11">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:11">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:11">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
     </row>
     <row r="93" ht="42" customHeight="1" spans="1:11">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" ht="42" customHeight="1" spans="1:11">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
     </row>
     <row r="95" ht="42" customHeight="1" spans="1:11">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
     </row>
     <row r="96" ht="42" customHeight="1" spans="1:11">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:11">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:11">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:11">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:11">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-    </row>
-    <row r="101" ht="42" customHeight="1" spans="1:11">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3266,7 +3326,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K100">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9">
@@ -3285,15 +3345,1436 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="7.546875" customWidth="1"/>
+    <col min="2" max="2" width="27.3359375" customWidth="1"/>
+    <col min="3" max="3" width="27.2109375" customWidth="1"/>
+    <col min="4" max="4" width="27.078125" customWidth="1"/>
+    <col min="5" max="5" width="20.046875" customWidth="1"/>
+    <col min="6" max="6" width="23.5625" customWidth="1"/>
+    <col min="7" max="7" width="15.4921875" customWidth="1"/>
+    <col min="8" max="8" width="14.1875" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4">
+        <f>COUNTIF(H9:H200,"Passed")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4">
+        <f>COUNTIF(H9:H200,"Failed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4">
+        <f>COUNTIF(H9:H200,"Not Executed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4">
+        <f>COUNTIF(H9:H200,"Out of Scope")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="9">
+        <f>SUM(I2:I5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="47" customHeight="1" spans="1:8">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:8">
+      <c r="A10" s="23">
+        <f>SUM(A9+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:8">
+      <c r="A11" s="23">
+        <f t="shared" ref="A11:A42" si="0">SUM(A10+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:8">
+      <c r="A12" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:8">
+      <c r="A13" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:8">
+      <c r="A14" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:8">
+      <c r="A15" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:8">
+      <c r="A16" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:8">
+      <c r="A17" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:8">
+      <c r="A18" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="1:8">
+      <c r="A19" s="23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" ht="42" customHeight="1" spans="1:8">
+      <c r="A20" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:8">
+      <c r="A21" s="23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:8">
+      <c r="A22" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:8">
+      <c r="A23" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:8">
+      <c r="A24" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:8">
+      <c r="A25" s="23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:8">
+      <c r="A26" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:8">
+      <c r="A27" s="23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:8">
+      <c r="A28" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:8">
+      <c r="A29" s="23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:8">
+      <c r="A30" s="23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:8">
+      <c r="A31" s="23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:8">
+      <c r="A32" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:8">
+      <c r="A33" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:8">
+      <c r="A34" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:8">
+      <c r="A35" s="23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:8">
+      <c r="A36" s="23">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:8">
+      <c r="A37" s="23">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:8">
+      <c r="A38" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:8">
+      <c r="A39" s="23">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:8">
+      <c r="A40" s="23">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:8">
+      <c r="A41" s="23">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:8">
+      <c r="A42" s="23">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:8">
+      <c r="A43" s="23">
+        <f t="shared" ref="A43:A74" si="1">SUM(A42+1)</f>
+        <v>35</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:8">
+      <c r="A44" s="23">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:8">
+      <c r="A45" s="23">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:8">
+      <c r="A46" s="23">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:8">
+      <c r="A47" s="23">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:8">
+      <c r="A48" s="23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:8">
+      <c r="A49" s="23">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:8">
+      <c r="A50" s="23">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:8">
+      <c r="A51" s="23">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:8">
+      <c r="A52" s="23">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:8">
+      <c r="A53" s="23">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:8">
+      <c r="A54" s="23">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:8">
+      <c r="A55" s="23">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:8">
+      <c r="A56" s="23">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:8">
+      <c r="A57" s="23">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:8">
+      <c r="A58" s="23">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:8">
+      <c r="A59" s="23">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="1:8">
+      <c r="A60" s="23">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:8">
+      <c r="A61" s="23">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="1:8">
+      <c r="A62" s="23">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:8">
+      <c r="A63" s="23">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:8">
+      <c r="A64" s="23">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" ht="42" customHeight="1" spans="1:8">
+      <c r="A65" s="23">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" ht="42" customHeight="1" spans="1:8">
+      <c r="A66" s="23">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" ht="42" customHeight="1" spans="1:8">
+      <c r="A67" s="23">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" ht="42" customHeight="1" spans="1:8">
+      <c r="A68" s="23">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" ht="42" customHeight="1" spans="1:8">
+      <c r="A69" s="23">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" ht="42" customHeight="1" spans="1:8">
+      <c r="A70" s="23">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" ht="42" customHeight="1" spans="1:8">
+      <c r="A71" s="23">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" ht="42" customHeight="1" spans="1:8">
+      <c r="A72" s="23">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" ht="42" customHeight="1" spans="1:8">
+      <c r="A73" s="23">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" ht="42" customHeight="1" spans="1:8">
+      <c r="A74" s="23">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" ht="42" customHeight="1" spans="1:8">
+      <c r="A75" s="23">
+        <f t="shared" ref="A75:A100" si="2">SUM(A74+1)</f>
+        <v>67</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" ht="42" customHeight="1" spans="1:8">
+      <c r="A76" s="23">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" ht="42" customHeight="1" spans="1:8">
+      <c r="A77" s="23">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" ht="42" customHeight="1" spans="1:8">
+      <c r="A78" s="23">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" ht="42" customHeight="1" spans="1:8">
+      <c r="A79" s="23">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" ht="42" customHeight="1" spans="1:8">
+      <c r="A80" s="23">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" ht="42" customHeight="1" spans="1:8">
+      <c r="A81" s="23">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" ht="42" customHeight="1" spans="1:8">
+      <c r="A82" s="23">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" ht="42" customHeight="1" spans="1:8">
+      <c r="A83" s="23">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" ht="42" customHeight="1" spans="1:8">
+      <c r="A84" s="23">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" ht="42" customHeight="1" spans="1:8">
+      <c r="A85" s="23">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" ht="42" customHeight="1" spans="1:8">
+      <c r="A86" s="23">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" ht="42" customHeight="1" spans="1:8">
+      <c r="A87" s="23">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" ht="42" customHeight="1" spans="1:8">
+      <c r="A88" s="23">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" ht="42" customHeight="1" spans="1:8">
+      <c r="A89" s="23">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" ht="42" customHeight="1" spans="1:8">
+      <c r="A90" s="23">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" ht="42" customHeight="1" spans="1:8">
+      <c r="A91" s="23">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" ht="42" customHeight="1" spans="1:8">
+      <c r="A92" s="23">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+    </row>
+    <row r="93" ht="42" customHeight="1" spans="1:8">
+      <c r="A93" s="23">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" ht="42" customHeight="1" spans="1:8">
+      <c r="A94" s="23">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" ht="42" customHeight="1" spans="1:8">
+      <c r="A95" s="23">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+    </row>
+    <row r="96" ht="42" customHeight="1" spans="1:8">
+      <c r="A96" s="23">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" ht="42" customHeight="1" spans="1:8">
+      <c r="A97" s="23">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" ht="42" customHeight="1" spans="1:8">
+      <c r="A98" s="23">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" ht="42" customHeight="1" spans="1:8">
+      <c r="A99" s="23">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" ht="42" customHeight="1" spans="1:8">
+      <c r="A100" s="23">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+      <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="Mohammad Sumon"/>
+    <hyperlink ref="C1" r:id="rId2" display="Takumibd"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.9921875" customWidth="1"/>
     <col min="2" max="2" width="16.0078125" customWidth="1"/>
@@ -3308,158 +4789,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>COUNTIF(H9:H200,"Passed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>COUNTIF(H9:H200,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="15" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>COUNTIF(H9:H200,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>COUNTIF(H9:H200,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="17" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="9">
         <f>SUM(I2:I5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" customFormat="1" ht="47" customHeight="1" spans="1:8">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="41" customHeight="1" spans="1:8">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" ht="41" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" ht="41" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" ht="41" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" ht="41" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" ht="41" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" ht="41" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" ht="41" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" ht="41" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" ht="41" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" ht="41" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" ht="41" customHeight="1" spans="1:8">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" ht="41" customHeight="1" spans="1:8">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" ht="41" customHeight="1" spans="1:8">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" ht="41" customHeight="1" spans="1:8">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" ht="41" customHeight="1" spans="1:8">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" ht="41" customHeight="1" spans="1:8">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" ht="41" customHeight="1" spans="1:8">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" ht="41" customHeight="1" spans="1:8">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" ht="41" customHeight="1" spans="1:8">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" ht="41" customHeight="1" spans="1:8">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" ht="41" customHeight="1" spans="1:8">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" ht="41" customHeight="1" spans="1:8">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" ht="41" customHeight="1" spans="1:8">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" ht="41" customHeight="1" spans="1:8">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" ht="41" customHeight="1" spans="1:8">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" ht="41" customHeight="1" spans="1:8">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" ht="41" customHeight="1" spans="1:8">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" ht="41" customHeight="1" spans="1:8">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" ht="41" customHeight="1" spans="1:8">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" ht="41" customHeight="1" spans="1:8">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" ht="41" customHeight="1" spans="1:8">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" ht="41" customHeight="1" spans="1:8">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" ht="41" customHeight="1" spans="1:8">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" ht="41" customHeight="1" spans="1:8">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" ht="41" customHeight="1" spans="1:8">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" ht="41" customHeight="1" spans="1:8">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" ht="41" customHeight="1" spans="1:8">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" ht="41" customHeight="1" spans="1:8">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" ht="41" customHeight="1" spans="1:8">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" ht="41" customHeight="1" spans="1:8">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3470,6 +5395,28 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+      <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="Mohammad Sumon"/>
     <hyperlink ref="C1" r:id="rId2" display="Takumibd"/>
@@ -3479,179 +5426,710 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.546875" customWidth="1"/>
-    <col min="2" max="2" width="27.3359375" customWidth="1"/>
-    <col min="3" max="3" width="27.2109375" customWidth="1"/>
-    <col min="4" max="4" width="27.078125" customWidth="1"/>
-    <col min="5" max="5" width="20.046875" customWidth="1"/>
-    <col min="6" max="6" width="23.5625" customWidth="1"/>
-    <col min="7" max="7" width="15.4921875" customWidth="1"/>
-    <col min="8" max="8" width="14.1875" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="7.15625" customWidth="1"/>
+    <col min="2" max="2" width="22.921875" customWidth="1"/>
+    <col min="3" max="4" width="22.1328125" customWidth="1"/>
+    <col min="5" max="5" width="18.1015625" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.7890625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>COUNTIF(H9:H200,"Passed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>COUNTIF(H9:H200,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="15" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>COUNTIF(H9:H200,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>COUNTIF(H9:H200,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="17" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="9">
         <f>SUM(I2:I5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="16" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="1:8">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:8">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:8">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:8">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:8">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:8">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:8">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:8">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="1:8">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" ht="42" customHeight="1" spans="1:8">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:8">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" ht="42" customHeight="1" spans="1:8">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:8">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" ht="42" customHeight="1" spans="1:8">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" ht="42" customHeight="1" spans="1:8">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:8">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" ht="42" customHeight="1" spans="1:8">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:8">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:8">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" ht="42" customHeight="1" spans="1:8">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" ht="42" customHeight="1" spans="1:8">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:8">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" ht="42" customHeight="1" spans="1:8">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" ht="42" customHeight="1" spans="1:8">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:8">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:8">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:8">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:8">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:8">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:8">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:8">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:8">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:8">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:8">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="1:8">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:8">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:8">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:8">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:8">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:8">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:8">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:8">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:8">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:8">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:8">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:8">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:8">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:8">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="1:8">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3662,6 +6140,28 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+      <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="Mohammad Sumon"/>
     <hyperlink ref="C1" r:id="rId2" display="Takumibd"/>
@@ -3669,4 +6169,75 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
+        <f>COUNTIF(A9:A200,"Passed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <f>COUNTIF(A9:A200,"Failed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <f>COUNTIF(A9:A200,"Not Executed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <f>COUNTIF(A9:A200,"Out of Scope")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9">
+        <f>SUM(B2:B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Takumibd.xlsx
+++ b/Takumibd.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="URL" sheetId="1" r:id="rId2"/>
     <sheet name="Registration" sheetId="5" r:id="rId3"/>
     <sheet name="Login" sheetId="3" r:id="rId4"/>
     <sheet name="reservation" sheetId="7" r:id="rId5"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
   <si>
     <t>Project Name</t>
   </si>
@@ -181,6 +181,19 @@
   </si>
   <si>
     <t xml:space="preserve">Found as per expectation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Check URL
+</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Ensure that the browser handles different protocols correctly.</t>
+  </si>
+  <si>
+    <t>Each protocol should be handled correctly, and secure URLs should display a secure connection indicator</t>
   </si>
   <si>
     <t>Browsers --Chrome, 
@@ -195,19 +208,15 @@
 3. Go to the website.</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Ensure that the browser handles different protocols correctly.</t>
-  </si>
-  <si>
-    <t>Each protocol should be handled correctly, and secure URLs should display a secure connection indicator</t>
-  </si>
-  <si>
     <t>Verify that the browser successfully loads the webpage.</t>
   </si>
   <si>
     <t>The webpage should load without errors, and all resources should be displayed as intended.</t>
+  </si>
+  <si>
+    <t>1. Go to different browsers.
+2. Search  ' https://takumibd.com/' 
+4. Go to the website.</t>
   </si>
   <si>
     <t>Registration</t>
@@ -224,6 +233,18 @@
 2. Check the spelling and grammar of the website</t>
   </si>
   <si>
+    <t>Keeping all field blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not register </t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://takumibd.com/register
+2. Keeping all field blank 
+3. Click Register button</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
@@ -232,12 +253,30 @@
 2. Check the spelling and grammar of the website</t>
   </si>
   <si>
+    <t>Should not login</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://takumibd.com/login
+2. Keeping All field blank
+3. Click Login Button</t>
+  </si>
+  <si>
     <t>Reservation</t>
   </si>
   <si>
     <t>1. Goto the URL
 https://takumibd.com/reservation/form
 2. Check the spelling and grammar of the website</t>
+  </si>
+  <si>
+    <t>Should not Reservation</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://takumibd.com/reservation/form
+2. Keeping all field blank 
+3. Click on Reservation Button</t>
   </si>
 </sst>
 </file>
@@ -284,18 +323,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
       <name val="Times New Roman Regular"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1099,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,30 +1199,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1200,6 +1242,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,9 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1625,11 +1667,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.71875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.09375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.8671875" style="28" customWidth="1"/>
-    <col min="4" max="5" width="15.359375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="14.71875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="24.09375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="27.8671875" style="29" customWidth="1"/>
+    <col min="4" max="5" width="15.359375" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:5">
@@ -1640,208 +1682,208 @@
       <c r="E1" s="15"/>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" ht="14.75" spans="1:5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" ht="28.75" spans="1:5">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:5">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:5">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:5">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:5">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:5">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1868,29 +1910,29 @@
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="28"/>
-    <col min="2" max="2" width="13.53125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="22.5234375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.96875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.7421875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="25.515625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="22.265625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="19.2734375" style="28" customWidth="1"/>
-    <col min="9" max="10" width="19.5234375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="16.9296875" style="28" customWidth="1"/>
-    <col min="12" max="12" width="9" style="28"/>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="13.53125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="22.5234375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.96875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="21.7421875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="25.515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="22.265625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="19.2734375" style="29" customWidth="1"/>
+    <col min="9" max="10" width="19.5234375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="35"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="4"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1907,19 +1949,19 @@
         <v>26</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="37"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="35"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="4"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1929,20 +1971,20 @@
       </c>
       <c r="L2" s="4">
         <f>COUNTIF(K9:K199,"Passed")</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="4"/>
       <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -1959,19 +2001,19 @@
         <f>COUNTIF(K9:K199,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4"/>
       <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="35"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="4"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1983,11 +2025,11 @@
         <f>COUNTIF(K9:K199,"Not Executed")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2003,7 +2045,7 @@
         <f>COUNTIF(K9:K199,"Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="15"/>
@@ -2021,9 +2063,9 @@
       </c>
       <c r="L6" s="9">
         <f>SUM(L2:L5)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="15"/>
@@ -2038,7 +2080,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:13">
       <c r="A8" s="16" t="s">
@@ -2075,17 +2117,17 @@
         <v>49</v>
       </c>
       <c r="L8" s="15"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:13">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="18" t="s">
         <v>51</v>
       </c>
@@ -2095,63 +2137,78 @@
       <c r="G9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="15"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:11">
-      <c r="A10" s="17"/>
+      <c r="A10" s="17">
+        <f>SUM(A9+1)</f>
+        <v>2</v>
+      </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="G10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="F11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:11">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
@@ -2160,11 +2217,11 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="36"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
@@ -2173,11 +2230,11 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
@@ -2186,11 +2243,11 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="36"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
@@ -2199,11 +2256,11 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
     </row>
@@ -2212,11 +2269,11 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
     </row>
@@ -2225,11 +2282,11 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
@@ -2238,11 +2295,11 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
@@ -2251,11 +2308,11 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
@@ -2264,11 +2321,11 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
@@ -2277,11 +2334,11 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
@@ -2290,11 +2347,11 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
@@ -2303,11 +2360,11 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
@@ -2316,11 +2373,11 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
@@ -2329,11 +2386,11 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
@@ -2342,11 +2399,11 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
@@ -2355,11 +2412,11 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
@@ -2368,11 +2425,11 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
@@ -2381,11 +2438,11 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
@@ -2394,11 +2451,11 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
@@ -2407,11 +2464,11 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
@@ -2420,11 +2477,11 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
     </row>
@@ -2433,11 +2490,11 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
@@ -2446,11 +2503,11 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="36"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
@@ -2459,11 +2516,11 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
@@ -2472,11 +2529,11 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="36"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
@@ -2485,11 +2542,11 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
     </row>
@@ -2498,11 +2555,11 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
@@ -2511,11 +2568,11 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="36"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
     </row>
@@ -2524,11 +2581,11 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="36"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
     </row>
@@ -2537,11 +2594,11 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
     </row>
@@ -2550,11 +2607,11 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="36"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
     </row>
@@ -2563,11 +2620,11 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
     </row>
@@ -2576,11 +2633,11 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="36"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
@@ -2589,11 +2646,11 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="36"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
     </row>
@@ -2602,11 +2659,11 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="36"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
     </row>
@@ -2615,11 +2672,11 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="36"/>
+      <c r="I48" s="25"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
@@ -2628,11 +2685,11 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="36"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
@@ -2641,11 +2698,11 @@
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="36"/>
+      <c r="I50" s="25"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
@@ -2654,11 +2711,11 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="36"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
@@ -2667,11 +2724,11 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
@@ -2680,11 +2737,11 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
@@ -2693,11 +2750,11 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="36"/>
+      <c r="I54" s="25"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
@@ -2706,11 +2763,11 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="25"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
@@ -2719,11 +2776,11 @@
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="17"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="25"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
@@ -2732,11 +2789,11 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
@@ -2745,11 +2802,11 @@
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="25"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
@@ -2758,11 +2815,11 @@
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
@@ -2771,11 +2828,11 @@
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
@@ -2784,11 +2841,11 @@
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
@@ -2797,11 +2854,11 @@
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="25"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
@@ -2810,11 +2867,11 @@
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
       <c r="H63" s="17"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
@@ -2823,11 +2880,11 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="17"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="25"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
@@ -2836,11 +2893,11 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="25"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
@@ -2849,11 +2906,11 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="17"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
@@ -2862,11 +2919,11 @@
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
@@ -2875,11 +2932,11 @@
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="17"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
@@ -2888,11 +2945,11 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="17"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="25"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
@@ -2901,11 +2958,11 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
       <c r="H70" s="17"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="25"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
@@ -2914,11 +2971,11 @@
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="25"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
@@ -2927,11 +2984,11 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="25"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
@@ -2940,11 +2997,11 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="25"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
@@ -2953,11 +3010,11 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="17"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="25"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
@@ -2966,11 +3023,11 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="17"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
@@ -2979,11 +3036,11 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
@@ -2992,11 +3049,11 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
       <c r="H77" s="17"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
@@ -3005,11 +3062,11 @@
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="25"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
     </row>
@@ -3018,11 +3075,11 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
     </row>
@@ -3031,11 +3088,11 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="25"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
@@ -3044,11 +3101,11 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
@@ -3057,11 +3114,11 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="25"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
@@ -3070,11 +3127,11 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
@@ -3083,11 +3140,11 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="25"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
@@ -3096,11 +3153,11 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="17"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="25"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
@@ -3109,11 +3166,11 @@
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="25"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
@@ -3122,11 +3179,11 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="25"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
     </row>
@@ -3135,11 +3192,11 @@
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
     </row>
@@ -3148,11 +3205,11 @@
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="25"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
     </row>
@@ -3161,11 +3218,11 @@
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="25"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
     </row>
@@ -3174,11 +3231,11 @@
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="25"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
     </row>
@@ -3187,11 +3244,11 @@
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="17"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="25"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
     </row>
@@ -3200,11 +3257,11 @@
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="17"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="25"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
     </row>
@@ -3213,11 +3270,11 @@
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
       <c r="H94" s="17"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="25"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
@@ -3226,11 +3283,11 @@
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="25"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
@@ -3239,11 +3296,11 @@
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
       <c r="H96" s="17"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="25"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
@@ -3252,11 +3309,11 @@
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="25"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
@@ -3265,11 +3322,11 @@
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
       <c r="H98" s="17"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="25"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
@@ -3278,11 +3335,11 @@
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
       <c r="H99" s="17"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="25"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
     </row>
@@ -3291,11 +3348,11 @@
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="25"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
     </row>
@@ -3309,27 +3366,61 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="between" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="between" text="Not Executed">
       <formula>NOT(ISERROR(SEARCH("Not Executed",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",K10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",K10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="8" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",K10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",K10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",K10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",K11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K100">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9 K10 K11">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3350,7 +3441,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3371,15 +3462,15 @@
         <v>24</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3391,20 +3482,20 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(H9:H200,"Passed")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3416,11 +3507,11 @@
       <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
@@ -3439,8 +3530,8 @@
         <v>35</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3455,8 +3546,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
@@ -3478,7 +3569,7 @@
       </c>
       <c r="I6" s="9">
         <f>SUM(I2:I5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3519,1209 +3610,1219 @@
       </c>
     </row>
     <row r="9" ht="47" customHeight="1" spans="1:8">
-      <c r="A9" s="23">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="26"/>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:8">
-      <c r="A10" s="23">
+      <c r="A10" s="26">
         <f>SUM(A9+1)</f>
         <v>2</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="B10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:8">
-      <c r="A11" s="23">
+      <c r="A11" s="26">
         <f t="shared" ref="A11:A42" si="0">SUM(A10+1)</f>
         <v>3</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:8">
-      <c r="A12" s="23">
+      <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:8">
-      <c r="A13" s="23">
+      <c r="A13" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:8">
-      <c r="A14" s="23">
+      <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:8">
-      <c r="A15" s="23">
+      <c r="A15" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:8">
-      <c r="A16" s="23">
+      <c r="A16" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:8">
-      <c r="A17" s="23">
+      <c r="A17" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:8">
-      <c r="A18" s="23">
+      <c r="A18" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:8">
-      <c r="A19" s="23">
+      <c r="A19" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:8">
-      <c r="A20" s="23">
+      <c r="A20" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:8">
-      <c r="A21" s="23">
+      <c r="A21" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:8">
-      <c r="A22" s="23">
+      <c r="A22" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:8">
-      <c r="A23" s="23">
+      <c r="A23" s="26">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" ht="42" customHeight="1" spans="1:8">
-      <c r="A24" s="23">
+      <c r="A24" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:8">
-      <c r="A25" s="23">
+      <c r="A25" s="26">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:8">
-      <c r="A26" s="23">
+      <c r="A26" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:8">
-      <c r="A27" s="23">
+      <c r="A27" s="26">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:8">
-      <c r="A28" s="23">
+      <c r="A28" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:8">
-      <c r="A29" s="23">
+      <c r="A29" s="26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:8">
-      <c r="A30" s="23">
+      <c r="A30" s="26">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:8">
-      <c r="A31" s="23">
+      <c r="A31" s="26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:8">
-      <c r="A32" s="23">
+      <c r="A32" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="1:8">
-      <c r="A33" s="23">
+      <c r="A33" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="1:8">
-      <c r="A34" s="23">
+      <c r="A34" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" ht="42" customHeight="1" spans="1:8">
-      <c r="A35" s="23">
+      <c r="A35" s="26">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:8">
-      <c r="A36" s="23">
+      <c r="A36" s="26">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:8">
-      <c r="A37" s="23">
+      <c r="A37" s="26">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:8">
-      <c r="A38" s="23">
+      <c r="A38" s="26">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:8">
-      <c r="A39" s="23">
+      <c r="A39" s="26">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:8">
-      <c r="A40" s="23">
+      <c r="A40" s="26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:8">
-      <c r="A41" s="23">
+      <c r="A41" s="26">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:8">
-      <c r="A42" s="23">
+      <c r="A42" s="26">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:8">
-      <c r="A43" s="23">
+      <c r="A43" s="26">
         <f t="shared" ref="A43:A74" si="1">SUM(A42+1)</f>
         <v>35</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:8">
-      <c r="A44" s="23">
+      <c r="A44" s="26">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" ht="42" customHeight="1" spans="1:8">
-      <c r="A45" s="23">
+      <c r="A45" s="26">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" ht="42" customHeight="1" spans="1:8">
-      <c r="A46" s="23">
+      <c r="A46" s="26">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" ht="42" customHeight="1" spans="1:8">
-      <c r="A47" s="23">
+      <c r="A47" s="26">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:8">
-      <c r="A48" s="23">
+      <c r="A48" s="26">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:8">
-      <c r="A49" s="23">
+      <c r="A49" s="26">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:8">
-      <c r="A50" s="23">
+      <c r="A50" s="26">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:8">
-      <c r="A51" s="23">
+      <c r="A51" s="26">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:8">
-      <c r="A52" s="23">
+      <c r="A52" s="26">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:8">
-      <c r="A53" s="23">
+      <c r="A53" s="26">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:8">
-      <c r="A54" s="23">
+      <c r="A54" s="26">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:8">
-      <c r="A55" s="23">
+      <c r="A55" s="26">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:8">
-      <c r="A56" s="23">
+      <c r="A56" s="26">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" ht="42" customHeight="1" spans="1:8">
-      <c r="A57" s="23">
+      <c r="A57" s="26">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="1:8">
-      <c r="A58" s="23">
+      <c r="A58" s="26">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="1:8">
-      <c r="A59" s="23">
+      <c r="A59" s="26">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="1:8">
-      <c r="A60" s="23">
+      <c r="A60" s="26">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:8">
-      <c r="A61" s="23">
+      <c r="A61" s="26">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:8">
-      <c r="A62" s="23">
+      <c r="A62" s="26">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:8">
-      <c r="A63" s="23">
+      <c r="A63" s="26">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:8">
-      <c r="A64" s="23">
+      <c r="A64" s="26">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:8">
-      <c r="A65" s="23">
+      <c r="A65" s="26">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:8">
-      <c r="A66" s="23">
+      <c r="A66" s="26">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:8">
-      <c r="A67" s="23">
+      <c r="A67" s="26">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" ht="42" customHeight="1" spans="1:8">
-      <c r="A68" s="23">
+      <c r="A68" s="26">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" ht="42" customHeight="1" spans="1:8">
-      <c r="A69" s="23">
+      <c r="A69" s="26">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
     </row>
     <row r="70" ht="42" customHeight="1" spans="1:8">
-      <c r="A70" s="23">
+      <c r="A70" s="26">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
     </row>
     <row r="71" ht="42" customHeight="1" spans="1:8">
-      <c r="A71" s="23">
+      <c r="A71" s="26">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
     </row>
     <row r="72" ht="42" customHeight="1" spans="1:8">
-      <c r="A72" s="23">
+      <c r="A72" s="26">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
     </row>
     <row r="73" ht="42" customHeight="1" spans="1:8">
-      <c r="A73" s="23">
+      <c r="A73" s="26">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" ht="42" customHeight="1" spans="1:8">
-      <c r="A74" s="23">
+      <c r="A74" s="26">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" ht="42" customHeight="1" spans="1:8">
-      <c r="A75" s="23">
+      <c r="A75" s="26">
         <f t="shared" ref="A75:A100" si="2">SUM(A74+1)</f>
         <v>67</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
     </row>
     <row r="76" ht="42" customHeight="1" spans="1:8">
-      <c r="A76" s="23">
+      <c r="A76" s="26">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
     </row>
     <row r="77" ht="42" customHeight="1" spans="1:8">
-      <c r="A77" s="23">
+      <c r="A77" s="26">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
     </row>
     <row r="78" ht="42" customHeight="1" spans="1:8">
-      <c r="A78" s="23">
+      <c r="A78" s="26">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
     </row>
     <row r="79" ht="42" customHeight="1" spans="1:8">
-      <c r="A79" s="23">
+      <c r="A79" s="26">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
     </row>
     <row r="80" ht="42" customHeight="1" spans="1:8">
-      <c r="A80" s="23">
+      <c r="A80" s="26">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
     </row>
     <row r="81" ht="42" customHeight="1" spans="1:8">
-      <c r="A81" s="23">
+      <c r="A81" s="26">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
     </row>
     <row r="82" ht="42" customHeight="1" spans="1:8">
-      <c r="A82" s="23">
+      <c r="A82" s="26">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
     </row>
     <row r="83" ht="42" customHeight="1" spans="1:8">
-      <c r="A83" s="23">
+      <c r="A83" s="26">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
     </row>
     <row r="84" ht="42" customHeight="1" spans="1:8">
-      <c r="A84" s="23">
+      <c r="A84" s="26">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:8">
-      <c r="A85" s="23">
+      <c r="A85" s="26">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:8">
-      <c r="A86" s="23">
+      <c r="A86" s="26">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:8">
-      <c r="A87" s="23">
+      <c r="A87" s="26">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:8">
-      <c r="A88" s="23">
+      <c r="A88" s="26">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:8">
-      <c r="A89" s="23">
+      <c r="A89" s="26">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:8">
-      <c r="A90" s="23">
+      <c r="A90" s="26">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:8">
-      <c r="A91" s="23">
+      <c r="A91" s="26">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:8">
-      <c r="A92" s="23">
+      <c r="A92" s="26">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" ht="42" customHeight="1" spans="1:8">
-      <c r="A93" s="23">
+      <c r="A93" s="26">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" ht="42" customHeight="1" spans="1:8">
-      <c r="A94" s="23">
+      <c r="A94" s="26">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
     </row>
     <row r="95" ht="42" customHeight="1" spans="1:8">
-      <c r="A95" s="23">
+      <c r="A95" s="26">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
     </row>
     <row r="96" ht="42" customHeight="1" spans="1:8">
-      <c r="A96" s="23">
+      <c r="A96" s="26">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:8">
-      <c r="A97" s="23">
+      <c r="A97" s="26">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:8">
-      <c r="A98" s="23">
+      <c r="A98" s="26">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:8">
-      <c r="A99" s="23">
+      <c r="A99" s="26">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:8">
-      <c r="A100" s="23">
+      <c r="A100" s="26">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4733,24 +4834,41 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="Not Executed">
       <formula>NOT(ISERROR(SEARCH("Not Executed",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H10">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4771,7 +4889,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4800,8 +4918,8 @@
         <v>25</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
@@ -4813,20 +4931,20 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(H9:H200,"Passed")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4838,11 +4956,11 @@
       <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
@@ -4861,8 +4979,8 @@
         <v>35</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
@@ -4877,8 +4995,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +5018,7 @@
       </c>
       <c r="I6" s="9">
         <f>SUM(I2:I5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4945,446 +5063,459 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" customFormat="1" ht="47" customHeight="1" spans="1:8">
-      <c r="A9" s="23">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="26"/>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="41" customHeight="1" spans="1:8">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="26">
+        <f>SUM(A9+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" ht="41" customHeight="1" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="41" customHeight="1" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="41" customHeight="1" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="41" customHeight="1" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="41" customHeight="1" spans="1:8">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="41" customHeight="1" spans="1:8">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" ht="41" customHeight="1" spans="1:8">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" ht="41" customHeight="1" spans="1:8">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" ht="41" customHeight="1" spans="1:8">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" ht="41" customHeight="1" spans="1:8">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" ht="41" customHeight="1" spans="1:8">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" ht="41" customHeight="1" spans="1:8">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" ht="41" customHeight="1" spans="1:8">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" ht="41" customHeight="1" spans="1:8">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" ht="41" customHeight="1" spans="1:8">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" ht="41" customHeight="1" spans="1:8">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" ht="41" customHeight="1" spans="1:8">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" ht="41" customHeight="1" spans="1:8">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" ht="41" customHeight="1" spans="1:8">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" ht="41" customHeight="1" spans="1:8">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" ht="41" customHeight="1" spans="1:8">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" ht="41" customHeight="1" spans="1:8">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" ht="41" customHeight="1" spans="1:8">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" ht="41" customHeight="1" spans="1:8">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" ht="41" customHeight="1" spans="1:8">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" ht="41" customHeight="1" spans="1:8">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" ht="41" customHeight="1" spans="1:8">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" ht="41" customHeight="1" spans="1:8">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" ht="41" customHeight="1" spans="1:8">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" ht="41" customHeight="1" spans="1:8">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" ht="41" customHeight="1" spans="1:8">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" ht="41" customHeight="1" spans="1:8">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" ht="41" customHeight="1" spans="1:8">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" ht="41" customHeight="1" spans="1:8">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" ht="41" customHeight="1" spans="1:8">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" ht="41" customHeight="1" spans="1:8">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" ht="41" customHeight="1" spans="1:8">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" ht="41" customHeight="1" spans="1:8">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" ht="41" customHeight="1" spans="1:8">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" ht="41" customHeight="1" spans="1:8">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5396,24 +5527,41 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="Not Executed">
       <formula>NOT(ISERROR(SEARCH("Not Executed",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H10">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5432,7 +5580,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD60"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5459,8 +5607,8 @@
         <v>25</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
@@ -5472,20 +5620,20 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(H9:H200,"Passed")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5497,11 +5645,11 @@
       <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
@@ -5520,8 +5668,8 @@
         <v>35</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
@@ -5536,8 +5684,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
@@ -5559,7 +5707,7 @@
       </c>
       <c r="I6" s="9">
         <f>SUM(I2:I5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5604,32 +5752,45 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:8">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="17">
+        <f>SUM(A9+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:8">
       <c r="A11" s="17"/>
@@ -6141,24 +6302,41 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="Not Executed">
       <formula>NOT(ISERROR(SEARCH("Not Executed",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="Not Executed">
+      <formula>NOT(ISERROR(SEARCH("Not Executed",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H10">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>
